--- a/listadoFicheros.xlsx
+++ b/listadoFicheros.xlsx
@@ -22,94 +22,94 @@
     <x:t>Presupuesto</x:t>
   </x:si>
   <x:si>
+    <x:t>UL223314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UR237511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL258112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AR044321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL258113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UL258001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UL258122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UL258129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AR062233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AR062331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UR054912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AH001256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL001936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL071236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL112347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL213557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL232310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL221556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UR216878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UR332441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL053494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AR056691</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UL046321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17000.00</x:t>
+  </x:si>
+  <x:si>
     <x:t>UL054239</x:t>
   </x:si>
   <x:si>
-    <x:t>17000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL112347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR056691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL258113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR054912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL232310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AH001256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL221556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR216878</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL046321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL053494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL071236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR062233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR237511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL001936</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR044321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL223314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR332441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL213557</x:t>
-  </x:si>
-  <x:si>
     <x:t>UR047451</x:t>
   </x:si>
   <x:si>
     <x:t>14166.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR062331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL258112</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,68 +487,68 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>3</x:v>
@@ -556,122 +556,122 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/listadoFicheros.xlsx
+++ b/listadoFicheros.xlsx
@@ -88,19 +88,19 @@
     <x:t>AL053494</x:t>
   </x:si>
   <x:si>
-    <x:t>24000.00</x:t>
+    <x:t>20000.00</x:t>
   </x:si>
   <x:si>
     <x:t>AR056691</x:t>
   </x:si>
   <x:si>
-    <x:t>15000.00</x:t>
+    <x:t>13333.33</x:t>
   </x:si>
   <x:si>
     <x:t>UL046321</x:t>
   </x:si>
   <x:si>
-    <x:t>17000.00</x:t>
+    <x:t>15454.55</x:t>
   </x:si>
   <x:si>
     <x:t>UL054239</x:t>
@@ -109,7 +109,7 @@
     <x:t>UR047451</x:t>
   </x:si>
   <x:si>
-    <x:t>14166.67</x:t>
+    <x:t>13076.92</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -674,6 +674,806 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2">
+      <x:c r="A46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2">
+      <x:c r="A47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2">
+      <x:c r="A48" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="A49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2">
+      <x:c r="A50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2">
+      <x:c r="A51" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:2">
+      <x:c r="A52" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="A53" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:2">
+      <x:c r="A54" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2">
+      <x:c r="A55" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:2">
+      <x:c r="A56" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="A57" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2">
+      <x:c r="A58" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="A59" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:2">
+      <x:c r="A60" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="A61" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:2">
+      <x:c r="A62" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:2">
+      <x:c r="A63" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:2">
+      <x:c r="A64" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:2">
+      <x:c r="A65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:2">
+      <x:c r="A66" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2">
+      <x:c r="A67" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:2">
+      <x:c r="A68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:2">
+      <x:c r="A70" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2">
+      <x:c r="A72" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2">
+      <x:c r="A75" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:2">
+      <x:c r="A76" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:2">
+      <x:c r="A77" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:2">
+      <x:c r="A78" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2">
+      <x:c r="A79" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:2">
+      <x:c r="A80" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2">
+      <x:c r="A81" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:2">
+      <x:c r="A82" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="A83" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:2">
+      <x:c r="A84" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="A85" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:2">
+      <x:c r="A86" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:2">
+      <x:c r="A88" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2">
+      <x:c r="A89" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:2">
+      <x:c r="A90" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:2">
+      <x:c r="A91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:2">
+      <x:c r="A92" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:2">
+      <x:c r="A93" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:2">
+      <x:c r="A94" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:2">
+      <x:c r="A95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2">
+      <x:c r="A96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2">
+      <x:c r="A97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:2">
+      <x:c r="A98" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:2">
+      <x:c r="A99" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:2">
+      <x:c r="A100" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2">
+      <x:c r="A102" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2">
+      <x:c r="A103" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:2">
+      <x:c r="A104" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:2">
+      <x:c r="A105" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:2">
+      <x:c r="A106" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:2">
+      <x:c r="A107" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:2">
+      <x:c r="A108" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:2">
+      <x:c r="A109" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:2">
+      <x:c r="A110" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:2">
+      <x:c r="A111" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:2">
+      <x:c r="A112" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:2">
+      <x:c r="A114" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:2">
+      <x:c r="A115" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:2">
+      <x:c r="A116" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:2">
+      <x:c r="A117" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:2">
+      <x:c r="A118" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:2">
+      <x:c r="A119" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:2">
+      <x:c r="A120" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:2">
+      <x:c r="A123" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:2">
+      <x:c r="A124" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:2">
+      <x:c r="A125" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:2">
+      <x:c r="A126" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
